--- a/medicine/Sexualité et sexologie/Stella,_l'amie_de_Maimie/Stella,_l'amie_de_Maimie.xlsx
+++ b/medicine/Sexualité et sexologie/Stella,_l'amie_de_Maimie/Stella,_l'amie_de_Maimie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stella,_l%27amie_de_Maimie</t>
+          <t>Stella,_l'amie_de_Maimie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stella, l’amie de Maimie ou simplement Stella est un organisme montréalais à but non lucratif qui lutte pour l'obtention de droits humains et l'amélioration des conditions de vie et de travail des travailleuses du sexe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stella,_l%27amie_de_Maimie</t>
+          <t>Stella,_l'amie_de_Maimie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, ce sont des filles connaissant le métier qui ont créé l'organisme avec l'aide de travailleuses sociales. L'organisme lutte entre autres contre la violence faite aux femmes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stella,_l%27amie_de_Maimie</t>
+          <t>Stella,_l'amie_de_Maimie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Appui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'organisme est membre de l'Alliance canadienne pour la réforme des lois sur le travail du sexe[1]. Avec l’Alliance, Stella lance en 2021 une contestation constitutionnelle de certaines infractions criminelles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'organisme est membre de l'Alliance canadienne pour la réforme des lois sur le travail du sexe. Avec l’Alliance, Stella lance en 2021 une contestation constitutionnelle de certaines infractions criminelles.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stella,_l%27amie_de_Maimie</t>
+          <t>Stella,_l'amie_de_Maimie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de l’organisme est choisi en l’honneur de deux femmes. Stella Philipps était une protégée de Maimie Pinzer, une ancienne travailleuse du sexe qui a fondé la Montreal Mission for Friendless Girls en 1915 pour aider les travailleuses du sexe juives et protestantes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de l’organisme est choisi en l’honneur de deux femmes. Stella Philipps était une protégée de Maimie Pinzer, une ancienne travailleuse du sexe qui a fondé la Montreal Mission for Friendless Girls en 1915 pour aider les travailleuses du sexe juives et protestantes.
 </t>
         </is>
       </c>
